--- a/state_results/Rivers/MangarangioraTribatusNorsewoodSTP_ddf5899c87.xlsx
+++ b/state_results/Rivers/MangarangioraTribatusNorsewoodSTP_ddf5899c87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U188"/>
+  <dimension ref="A1:U205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.83618570989914</v>
+        <v>1.85403484546834</v>
       </c>
       <c r="H2" t="n">
         <v>5.1</v>
@@ -581,13 +581,13 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>1.85832</v>
+        <v>1.9</v>
       </c>
       <c r="M2" t="n">
-        <v>2.453</v>
+        <v>2.6</v>
       </c>
       <c r="N2" t="n">
-        <v>3.09511</v>
+        <v>3.09424</v>
       </c>
       <c r="O2" t="n">
         <v>1874807</v>
@@ -1153,7 +1153,7 @@
         <v>0.009730000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0310117692814561</v>
+        <v>0.0310165761239858</v>
       </c>
       <c r="H9" t="n">
         <v>0.628537495779667</v>
@@ -1234,7 +1234,7 @@
         <v>0.009730000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0310117692814561</v>
+        <v>0.0310165761239858</v>
       </c>
       <c r="H10" t="n">
         <v>0.628537495779667</v>
@@ -1473,7 +1473,7 @@
         <v>1.038</v>
       </c>
       <c r="G13" t="n">
-        <v>1.07212068965517</v>
+        <v>1.0721</v>
       </c>
       <c r="H13" t="n">
         <v>3.369</v>
@@ -1550,7 +1550,7 @@
         <v>1.038</v>
       </c>
       <c r="G14" t="n">
-        <v>1.07212068965517</v>
+        <v>1.0721</v>
       </c>
       <c r="H14" t="n">
         <v>3.369</v>
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>1.88598072640843</v>
+        <v>1.90424495815365</v>
       </c>
       <c r="H19" t="n">
         <v>5.1</v>
@@ -1953,7 +1953,7 @@
         <v>1.9</v>
       </c>
       <c r="M19" t="n">
-        <v>2.4785</v>
+        <v>2.6</v>
       </c>
       <c r="N19" t="n">
         <v>3.106</v>
@@ -2522,7 +2522,7 @@
         <v>0.01011</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0304586737572842</v>
+        <v>0.0304614696975449</v>
       </c>
       <c r="H26" t="n">
         <v>0.628537495779667</v>
@@ -2603,7 +2603,7 @@
         <v>0.01011</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0304586737572842</v>
+        <v>0.0304614696975449</v>
       </c>
       <c r="H27" t="n">
         <v>0.628537495779667</v>
@@ -2842,7 +2842,7 @@
         <v>0.9715</v>
       </c>
       <c r="G30" t="n">
-        <v>1.03955172413793</v>
+        <v>1.03950862068966</v>
       </c>
       <c r="H30" t="n">
         <v>3.369</v>
@@ -2919,7 +2919,7 @@
         <v>0.9715</v>
       </c>
       <c r="G31" t="n">
-        <v>1.03955172413793</v>
+        <v>1.03950862068966</v>
       </c>
       <c r="H31" t="n">
         <v>3.369</v>
@@ -3308,13 +3308,13 @@
         <v>1.7</v>
       </c>
       <c r="G36" t="n">
-        <v>1.68117928088906</v>
+        <v>1.70081333001517</v>
       </c>
       <c r="H36" t="n">
         <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>2.72776</v>
+        <v>2.72877</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3322,10 +3322,10 @@
         <v>1.8</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="N36" t="n">
-        <v>2.53</v>
+        <v>2.61369</v>
       </c>
       <c r="O36" t="n">
         <v>1874807</v>
@@ -3891,7 +3891,7 @@
         <v>0.00944</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0304708826518408</v>
+        <v>0.0304726952074231</v>
       </c>
       <c r="H43" t="n">
         <v>0.628537495779667</v>
@@ -3972,7 +3972,7 @@
         <v>0.00944</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0304708826518408</v>
+        <v>0.0304726952074231</v>
       </c>
       <c r="H44" t="n">
         <v>0.628537495779667</v>
@@ -4211,7 +4211,7 @@
         <v>1.118</v>
       </c>
       <c r="G47" t="n">
-        <v>1.00191379310345</v>
+        <v>1.00187068965517</v>
       </c>
       <c r="H47" t="n">
         <v>2.79</v>
@@ -4222,10 +4222,10 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.2175</v>
+        <v>0.2174</v>
       </c>
       <c r="M47" t="n">
-        <v>1.82216</v>
+        <v>1.82229</v>
       </c>
       <c r="N47" t="n">
         <v>2.02458</v>
@@ -4288,7 +4288,7 @@
         <v>1.118</v>
       </c>
       <c r="G48" t="n">
-        <v>1.00191379310345</v>
+        <v>1.00187068965517</v>
       </c>
       <c r="H48" t="n">
         <v>2.79</v>
@@ -4299,10 +4299,10 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.2175</v>
+        <v>0.2174</v>
       </c>
       <c r="M48" t="n">
-        <v>1.82216</v>
+        <v>1.82229</v>
       </c>
       <c r="N48" t="n">
         <v>2.02458</v>
@@ -4677,24 +4677,24 @@
         <v>1.55</v>
       </c>
       <c r="G53" t="n">
-        <v>1.5435412388365</v>
+        <v>1.56426622099664</v>
       </c>
       <c r="H53" t="n">
-        <v>2.5</v>
+        <v>2.64564883986554</v>
       </c>
       <c r="I53" t="n">
-        <v>2.375</v>
+        <v>2.475</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>1.80832</v>
+        <v>1.85</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="n">
-        <v>2.195</v>
+        <v>2.345</v>
       </c>
       <c r="O53" t="n">
         <v>1874807</v>
@@ -5260,7 +5260,7 @@
         <v>0.0066</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0290503105193828</v>
+        <v>0.0290553111709435</v>
       </c>
       <c r="H60" t="n">
         <v>0.628537495779667</v>
@@ -5341,7 +5341,7 @@
         <v>0.0066</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0290503105193828</v>
+        <v>0.0290553111709435</v>
       </c>
       <c r="H61" t="n">
         <v>0.628537495779667</v>
@@ -5422,7 +5422,7 @@
         <v>1.01725</v>
       </c>
       <c r="G62" t="n">
-        <v>0.967434625785877</v>
+        <v>0.967527494831002</v>
       </c>
       <c r="H62" t="n">
         <v>2.76</v>
@@ -5503,7 +5503,7 @@
         <v>1.01725</v>
       </c>
       <c r="G63" t="n">
-        <v>0.967434625785877</v>
+        <v>0.967527494831002</v>
       </c>
       <c r="H63" t="n">
         <v>2.76</v>
@@ -5577,16 +5577,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.157</v>
+        <v>1.15695</v>
       </c>
       <c r="G64" t="n">
-        <v>1.00499435605172</v>
+        <v>1.00503005733118</v>
       </c>
       <c r="H64" t="n">
         <v>2.79</v>
       </c>
       <c r="I64" t="n">
-        <v>2.234</v>
+        <v>2.23425</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -5597,7 +5597,7 @@
         <v>1.7939</v>
       </c>
       <c r="N64" t="n">
-        <v>2.0642</v>
+        <v>2.06406</v>
       </c>
       <c r="O64" t="n">
         <v>1874807</v>
@@ -5654,16 +5654,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.157</v>
+        <v>1.15695</v>
       </c>
       <c r="G65" t="n">
-        <v>1.00499435605172</v>
+        <v>1.00503005733118</v>
       </c>
       <c r="H65" t="n">
         <v>2.79</v>
       </c>
       <c r="I65" t="n">
-        <v>2.234</v>
+        <v>2.23425</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -5674,7 +5674,7 @@
         <v>1.7939</v>
       </c>
       <c r="N65" t="n">
-        <v>2.0642</v>
+        <v>2.06406</v>
       </c>
       <c r="O65" t="n">
         <v>1874807</v>
@@ -6629,7 +6629,7 @@
         <v>0.00316</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0229157557026826</v>
+        <v>0.0229245211273644</v>
       </c>
       <c r="H77" t="n">
         <v>0.628537495779667</v>
@@ -6710,7 +6710,7 @@
         <v>0.00316</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0229157557026826</v>
+        <v>0.0229245211273644</v>
       </c>
       <c r="H78" t="n">
         <v>0.628537495779667</v>
@@ -6791,7 +6791,7 @@
         <v>0.9845</v>
       </c>
       <c r="G79" t="n">
-        <v>0.958015043665107</v>
+        <v>0.958202723881625</v>
       </c>
       <c r="H79" t="n">
         <v>2.76</v>
@@ -6872,7 +6872,7 @@
         <v>0.9845</v>
       </c>
       <c r="G80" t="n">
-        <v>0.958015043665107</v>
+        <v>0.958202723881625</v>
       </c>
       <c r="H80" t="n">
         <v>2.76</v>
@@ -6949,24 +6949,24 @@
         <v>1.084</v>
       </c>
       <c r="G81" t="n">
-        <v>0.984875452983236</v>
+        <v>0.98496085375855</v>
       </c>
       <c r="H81" t="n">
         <v>2.79</v>
       </c>
       <c r="I81" t="n">
-        <v>2.3953</v>
+        <v>2.39557</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.103</v>
+        <v>0.10285</v>
       </c>
       <c r="M81" t="n">
-        <v>1.68446</v>
+        <v>1.68421</v>
       </c>
       <c r="N81" t="n">
-        <v>2.06052</v>
+        <v>2.0604</v>
       </c>
       <c r="O81" t="n">
         <v>1874807</v>
@@ -7026,24 +7026,24 @@
         <v>1.084</v>
       </c>
       <c r="G82" t="n">
-        <v>0.984875452983236</v>
+        <v>0.98496085375855</v>
       </c>
       <c r="H82" t="n">
         <v>2.79</v>
       </c>
       <c r="I82" t="n">
-        <v>2.3953</v>
+        <v>2.39557</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.103</v>
+        <v>0.10285</v>
       </c>
       <c r="M82" t="n">
-        <v>1.68446</v>
+        <v>1.68421</v>
       </c>
       <c r="N82" t="n">
-        <v>2.06052</v>
+        <v>2.0604</v>
       </c>
       <c r="O82" t="n">
         <v>1874807</v>
@@ -7998,7 +7998,7 @@
         <v>0.00316</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0065858913070651</v>
+        <v>0.0065946567317469</v>
       </c>
       <c r="H94" t="n">
         <v>0.0374110403196638</v>
@@ -8079,7 +8079,7 @@
         <v>0.00316</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0065858913070651</v>
+        <v>0.0065946567317469</v>
       </c>
       <c r="H95" t="n">
         <v>0.0374110403196638</v>
@@ -8160,7 +8160,7 @@
         <v>0.8704</v>
       </c>
       <c r="G96" t="n">
-        <v>1.02114619120609</v>
+        <v>1.02133387142261</v>
       </c>
       <c r="H96" t="n">
         <v>3.25</v>
@@ -8171,7 +8171,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.01592</v>
+        <v>0.01886</v>
       </c>
       <c r="M96" t="n">
         <v>2.08021</v>
@@ -8241,7 +8241,7 @@
         <v>0.8704</v>
       </c>
       <c r="G97" t="n">
-        <v>1.02114619120609</v>
+        <v>1.02133387142261</v>
       </c>
       <c r="H97" t="n">
         <v>3.25</v>
@@ -8252,7 +8252,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.01592</v>
+        <v>0.01886</v>
       </c>
       <c r="M97" t="n">
         <v>2.08021</v>
@@ -8318,7 +8318,7 @@
         <v>0.889</v>
       </c>
       <c r="G98" t="n">
-        <v>1.04051479724553</v>
+        <v>1.04060019802085</v>
       </c>
       <c r="H98" t="n">
         <v>3.3</v>
@@ -8329,10 +8329,10 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.03087</v>
+        <v>0.0324</v>
       </c>
       <c r="M98" t="n">
-        <v>2.09269</v>
+        <v>2.09258</v>
       </c>
       <c r="N98" t="n">
         <v>2.4048</v>
@@ -8395,7 +8395,7 @@
         <v>0.889</v>
       </c>
       <c r="G99" t="n">
-        <v>1.04051479724553</v>
+        <v>1.04060019802085</v>
       </c>
       <c r="H99" t="n">
         <v>3.3</v>
@@ -8406,10 +8406,10 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.03087</v>
+        <v>0.0324</v>
       </c>
       <c r="M99" t="n">
-        <v>2.09269</v>
+        <v>2.09258</v>
       </c>
       <c r="N99" t="n">
         <v>2.4048</v>
@@ -9364,10 +9364,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.00402</v>
+        <v>0.00403</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0180923207283859</v>
+        <v>0.0181011479647749</v>
       </c>
       <c r="H111" t="n">
         <v>0.446261306143105</v>
@@ -9378,7 +9378,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00392</v>
+        <v>0.00391</v>
       </c>
       <c r="M111" t="n">
         <v>0.01405</v>
@@ -9445,10 +9445,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.00402</v>
+        <v>0.00403</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0180923207283859</v>
+        <v>0.0181011479647749</v>
       </c>
       <c r="H112" t="n">
         <v>0.446261306143105</v>
@@ -9459,7 +9459,7 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00392</v>
+        <v>0.00391</v>
       </c>
       <c r="M112" t="n">
         <v>0.01405</v>
@@ -9529,7 +9529,7 @@
         <v>1.29</v>
       </c>
       <c r="G113" t="n">
-        <v>1.10693471579625</v>
+        <v>1.10712239601277</v>
       </c>
       <c r="H113" t="n">
         <v>3.25</v>
@@ -9610,7 +9610,7 @@
         <v>1.29</v>
       </c>
       <c r="G114" t="n">
-        <v>1.10693471579625</v>
+        <v>1.10712239601277</v>
       </c>
       <c r="H114" t="n">
         <v>3.25</v>
@@ -9687,7 +9687,7 @@
         <v>1.305</v>
       </c>
       <c r="G115" t="n">
-        <v>1.14667873167176</v>
+        <v>1.14678872261101</v>
       </c>
       <c r="H115" t="n">
         <v>3.3</v>
@@ -9764,7 +9764,7 @@
         <v>1.305</v>
       </c>
       <c r="G116" t="n">
-        <v>1.14667873167176</v>
+        <v>1.14678872261101</v>
       </c>
       <c r="H116" t="n">
         <v>3.3</v>
@@ -10736,7 +10736,7 @@
         <v>0.009639999999999999</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0202055057918485</v>
+        <v>0.0202134363469098</v>
       </c>
       <c r="H128" t="n">
         <v>0.446261306143105</v>
@@ -10817,7 +10817,7 @@
         <v>0.009639999999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0202055057918485</v>
+        <v>0.0202134363469098</v>
       </c>
       <c r="H129" t="n">
         <v>0.446261306143105</v>
@@ -10898,7 +10898,7 @@
         <v>1.06</v>
       </c>
       <c r="G130" t="n">
-        <v>1.14989209284543</v>
+        <v>1.15007977306195</v>
       </c>
       <c r="H130" t="n">
         <v>3.25</v>
@@ -10979,7 +10979,7 @@
         <v>1.06</v>
       </c>
       <c r="G131" t="n">
-        <v>1.14989209284543</v>
+        <v>1.15007977306195</v>
       </c>
       <c r="H131" t="n">
         <v>3.25</v>
@@ -11056,7 +11056,7 @@
         <v>1.19</v>
       </c>
       <c r="G132" t="n">
-        <v>1.19259676445865</v>
+        <v>1.19271495211921</v>
       </c>
       <c r="H132" t="n">
         <v>3.3</v>
@@ -11133,7 +11133,7 @@
         <v>1.19</v>
       </c>
       <c r="G133" t="n">
-        <v>1.19259676445865</v>
+        <v>1.19271495211921</v>
       </c>
       <c r="H133" t="n">
         <v>3.3</v>
@@ -12105,7 +12105,7 @@
         <v>0.0117</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0227685846334342</v>
+        <v>0.0227716413098109</v>
       </c>
       <c r="H145" t="n">
         <v>0.446261306143105</v>
@@ -12186,7 +12186,7 @@
         <v>0.0117</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0227685846334342</v>
+        <v>0.0227716413098109</v>
       </c>
       <c r="H146" t="n">
         <v>0.446261306143105</v>
@@ -12267,7 +12267,7 @@
         <v>0.784</v>
       </c>
       <c r="G147" t="n">
-        <v>1.12049431440933</v>
+        <v>1.12065240856395</v>
       </c>
       <c r="H147" t="n">
         <v>3.25</v>
@@ -12348,7 +12348,7 @@
         <v>0.784</v>
       </c>
       <c r="G148" t="n">
-        <v>1.12049431440933</v>
+        <v>1.12065240856395</v>
       </c>
       <c r="H148" t="n">
         <v>3.25</v>
@@ -12425,7 +12425,7 @@
         <v>1.1</v>
       </c>
       <c r="G149" t="n">
-        <v>1.16587697065888</v>
+        <v>1.16592895998984</v>
       </c>
       <c r="H149" t="n">
         <v>3.3</v>
@@ -12502,7 +12502,7 @@
         <v>1.1</v>
       </c>
       <c r="G150" t="n">
-        <v>1.16587697065888</v>
+        <v>1.16592895998984</v>
       </c>
       <c r="H150" t="n">
         <v>3.3</v>
@@ -13134,13 +13134,13 @@
         <v>620</v>
       </c>
       <c r="G158" t="n">
-        <v>1776.17166826058</v>
+        <v>1759.62265202825</v>
       </c>
       <c r="H158" t="n">
         <v>29000</v>
       </c>
       <c r="I158" t="n">
-        <v>7095.77064</v>
+        <v>6558.75506</v>
       </c>
       <c r="J158" t="n">
         <v>52.5423728813559</v>
@@ -13219,13 +13219,13 @@
         <v>620</v>
       </c>
       <c r="G159" t="n">
-        <v>1776.17166826058</v>
+        <v>1759.62265202825</v>
       </c>
       <c r="H159" t="n">
         <v>29000</v>
       </c>
       <c r="I159" t="n">
-        <v>7095.77064</v>
+        <v>6558.75506</v>
       </c>
       <c r="J159" t="n">
         <v>52.5423728813559</v>
@@ -13304,13 +13304,13 @@
         <v>620</v>
       </c>
       <c r="G160" t="n">
-        <v>1776.17166826058</v>
+        <v>1759.62265202825</v>
       </c>
       <c r="H160" t="n">
         <v>29000</v>
       </c>
       <c r="I160" t="n">
-        <v>7095.77064</v>
+        <v>6558.75506</v>
       </c>
       <c r="J160" t="n">
         <v>52.5423728813559</v>
@@ -13389,13 +13389,13 @@
         <v>620</v>
       </c>
       <c r="G161" t="n">
-        <v>1776.17166826058</v>
+        <v>1759.62265202825</v>
       </c>
       <c r="H161" t="n">
         <v>29000</v>
       </c>
       <c r="I161" t="n">
-        <v>7095.77064</v>
+        <v>6558.75506</v>
       </c>
       <c r="J161" t="n">
         <v>52.5423728813559</v>
@@ -13474,7 +13474,7 @@
         <v>0.01171</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0234079071588921</v>
+        <v>0.0234066785095009</v>
       </c>
       <c r="H162" t="n">
         <v>0.446261306143105</v>
@@ -13555,7 +13555,7 @@
         <v>0.01171</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0234079071588921</v>
+        <v>0.0234066785095009</v>
       </c>
       <c r="H163" t="n">
         <v>0.446261306143105</v>
@@ -13636,7 +13636,7 @@
         <v>0.784</v>
       </c>
       <c r="G164" t="n">
-        <v>1.10573940784273</v>
+        <v>1.10586161345793</v>
       </c>
       <c r="H164" t="n">
         <v>3.25</v>
@@ -13717,7 +13717,7 @@
         <v>0.784</v>
       </c>
       <c r="G165" t="n">
-        <v>1.10573940784273</v>
+        <v>1.10586161345793</v>
       </c>
       <c r="H165" t="n">
         <v>3.25</v>
@@ -14503,13 +14503,13 @@
         <v>740</v>
       </c>
       <c r="G175" t="n">
-        <v>2091.77367062928</v>
+        <v>2066.30622836048</v>
       </c>
       <c r="H175" t="n">
         <v>29000</v>
       </c>
       <c r="I175" t="n">
-        <v>11311.14277</v>
+        <v>10582.36346</v>
       </c>
       <c r="J175" t="n">
         <v>61.0169491525424</v>
@@ -14588,13 +14588,13 @@
         <v>740</v>
       </c>
       <c r="G176" t="n">
-        <v>2091.77367062928</v>
+        <v>2066.30622836048</v>
       </c>
       <c r="H176" t="n">
         <v>29000</v>
       </c>
       <c r="I176" t="n">
-        <v>11311.14277</v>
+        <v>10582.36346</v>
       </c>
       <c r="J176" t="n">
         <v>61.0169491525424</v>
@@ -14673,13 +14673,13 @@
         <v>740</v>
       </c>
       <c r="G177" t="n">
-        <v>2091.77367062928</v>
+        <v>2066.30622836048</v>
       </c>
       <c r="H177" t="n">
         <v>29000</v>
       </c>
       <c r="I177" t="n">
-        <v>11311.14277</v>
+        <v>10582.36346</v>
       </c>
       <c r="J177" t="n">
         <v>61.0169491525424</v>
@@ -14758,13 +14758,13 @@
         <v>740</v>
       </c>
       <c r="G178" t="n">
-        <v>2091.77367062928</v>
+        <v>2066.30622836048</v>
       </c>
       <c r="H178" t="n">
         <v>29000</v>
       </c>
       <c r="I178" t="n">
-        <v>11311.14277</v>
+        <v>10582.36346</v>
       </c>
       <c r="J178" t="n">
         <v>61.0169491525424</v>
@@ -14843,7 +14843,7 @@
         <v>0.01219</v>
       </c>
       <c r="G179" t="n">
-        <v>0.028147935641401</v>
+        <v>0.0281466833641368</v>
       </c>
       <c r="H179" t="n">
         <v>0.446261306143105</v>
@@ -14924,7 +14924,7 @@
         <v>0.01219</v>
       </c>
       <c r="G180" t="n">
-        <v>0.028147935641401</v>
+        <v>0.0281466833641368</v>
       </c>
       <c r="H180" t="n">
         <v>0.446261306143105</v>
@@ -15005,7 +15005,7 @@
         <v>0.959</v>
       </c>
       <c r="G181" t="n">
-        <v>1.25034957733425</v>
+        <v>1.25047178294945</v>
       </c>
       <c r="H181" t="n">
         <v>17</v>
@@ -15086,7 +15086,7 @@
         <v>0.959</v>
       </c>
       <c r="G182" t="n">
-        <v>1.25034957733425</v>
+        <v>1.25047178294945</v>
       </c>
       <c r="H182" t="n">
         <v>17</v>
@@ -15599,6 +15599,1375 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.64104166666667</v>
+      </c>
+      <c r="H189" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M189" t="n">
+        <v>2.434</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2.732</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0137457627118644</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.02455</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.01847</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.02178</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.0137457627118644</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.02455</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.01847</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.02178</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>767</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1202.45877073336</v>
+      </c>
+      <c r="H192" t="n">
+        <v>11224.3310036014</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3772.6</v>
+      </c>
+      <c r="J192" t="n">
+        <v>59.3220338983051</v>
+      </c>
+      <c r="K192" t="n">
+        <v>77.9661016949153</v>
+      </c>
+      <c r="L192" t="n">
+        <v>996</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1641</v>
+      </c>
+      <c r="N192" t="n">
+        <v>2509.8</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>767</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1202.45877073336</v>
+      </c>
+      <c r="H193" t="n">
+        <v>11224.3310036014</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3772.6</v>
+      </c>
+      <c r="J193" t="n">
+        <v>59.3220338983051</v>
+      </c>
+      <c r="K193" t="n">
+        <v>77.9661016949153</v>
+      </c>
+      <c r="L193" t="n">
+        <v>996</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1641</v>
+      </c>
+      <c r="N193" t="n">
+        <v>2509.8</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>767</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1202.45877073336</v>
+      </c>
+      <c r="H194" t="n">
+        <v>11224.3310036014</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3772.6</v>
+      </c>
+      <c r="J194" t="n">
+        <v>59.3220338983051</v>
+      </c>
+      <c r="K194" t="n">
+        <v>77.9661016949153</v>
+      </c>
+      <c r="L194" t="n">
+        <v>996</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1641</v>
+      </c>
+      <c r="N194" t="n">
+        <v>2509.8</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>767</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1202.45877073336</v>
+      </c>
+      <c r="H195" t="n">
+        <v>11224.3310036014</v>
+      </c>
+      <c r="I195" t="n">
+        <v>3772.6</v>
+      </c>
+      <c r="J195" t="n">
+        <v>59.3220338983051</v>
+      </c>
+      <c r="K195" t="n">
+        <v>77.9661016949153</v>
+      </c>
+      <c r="L195" t="n">
+        <v>996</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1641</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2509.8</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.01044</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.0157812723256154</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.19965034965035</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.03113</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.01029</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.01878</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.02659</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.01044</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.0157812723256154</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.19965034965035</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.03113</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.01029</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.01878</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.02659</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.33416669820369</v>
+      </c>
+      <c r="H198" t="n">
+        <v>17</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2.6955</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1.8882</v>
+      </c>
+      <c r="N198" t="n">
+        <v>2.4658</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.33416669820369</v>
+      </c>
+      <c r="H199" t="n">
+        <v>17</v>
+      </c>
+      <c r="I199" t="n">
+        <v>2.6955</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1.8882</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2.4658</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.37033898305085</v>
+      </c>
+      <c r="H200" t="n">
+        <v>17.671</v>
+      </c>
+      <c r="I200" t="n">
+        <v>2.7365</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1.94046</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2.4991</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.37033898305085</v>
+      </c>
+      <c r="H201" t="n">
+        <v>17.671</v>
+      </c>
+      <c r="I201" t="n">
+        <v>2.7365</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1.94046</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2.4991</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1.70457627118644</v>
+      </c>
+      <c r="H202" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="I202" t="n">
+        <v>3.082</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2.2151</v>
+      </c>
+      <c r="N202" t="n">
+        <v>2.8546</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1.70457627118644</v>
+      </c>
+      <c r="H203" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="I203" t="n">
+        <v>3.082</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2.2151</v>
+      </c>
+      <c r="N203" t="n">
+        <v>2.8546</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.0537118644067797</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.1326</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.07294</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.11304</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Mangarangiora Trib at us Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.0537118644067797</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.1326</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.07294</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.11304</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1874807</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5558313</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangarangioraTribatusNorsewoodSTP_ddf5899c87.xlsx
+++ b/state_results/Rivers/MangarangioraTribatusNorsewoodSTP_ddf5899c87.xlsx
@@ -570,13 +570,13 @@
         <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.85403484546834</v>
+        <v>1.86790351357409</v>
       </c>
       <c r="H2" t="n">
         <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.32</v>
+        <v>3.69257</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>1.9</v>
       </c>
       <c r="M2" t="n">
-        <v>2.6</v>
+        <v>2.453</v>
       </c>
       <c r="N2" t="n">
-        <v>3.09424</v>
+        <v>3.198</v>
       </c>
       <c r="O2" t="n">
         <v>1874807</v>
@@ -1939,13 +1939,13 @@
         <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>1.90424495815365</v>
+        <v>1.91843615342465</v>
       </c>
       <c r="H19" t="n">
         <v>5.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.34</v>
+        <v>3.70799</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1953,10 +1953,10 @@
         <v>1.9</v>
       </c>
       <c r="M19" t="n">
-        <v>2.6</v>
+        <v>2.4785</v>
       </c>
       <c r="N19" t="n">
-        <v>3.106</v>
+        <v>3.224</v>
       </c>
       <c r="O19" t="n">
         <v>1874807</v>
@@ -3308,13 +3308,13 @@
         <v>1.7</v>
       </c>
       <c r="G36" t="n">
-        <v>1.70081333001517</v>
+        <v>1.71606886493149</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.9085534767848</v>
       </c>
       <c r="I36" t="n">
-        <v>2.72877</v>
+        <v>2.9</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3322,10 +3322,10 @@
         <v>1.8</v>
       </c>
       <c r="M36" t="n">
-        <v>2.21</v>
+        <v>2.11144</v>
       </c>
       <c r="N36" t="n">
-        <v>2.61369</v>
+        <v>2.53</v>
       </c>
       <c r="O36" t="n">
         <v>1874807</v>
@@ -4677,13 +4677,13 @@
         <v>1.55</v>
       </c>
       <c r="G53" t="n">
-        <v>1.56426622099664</v>
+        <v>1.55210502801187</v>
       </c>
       <c r="H53" t="n">
-        <v>2.64564883986554</v>
+        <v>2.5</v>
       </c>
       <c r="I53" t="n">
-        <v>2.475</v>
+        <v>2.375</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
         <v>2</v>
       </c>
       <c r="N53" t="n">
-        <v>2.345</v>
+        <v>2.20144</v>
       </c>
       <c r="O53" t="n">
         <v>1874807</v>
@@ -13134,13 +13134,13 @@
         <v>620</v>
       </c>
       <c r="G158" t="n">
-        <v>1759.62265202825</v>
+        <v>1759.49665201719</v>
       </c>
       <c r="H158" t="n">
         <v>29000</v>
       </c>
       <c r="I158" t="n">
-        <v>6558.75506</v>
+        <v>6554.66636</v>
       </c>
       <c r="J158" t="n">
         <v>52.5423728813559</v>
@@ -13219,13 +13219,13 @@
         <v>620</v>
       </c>
       <c r="G159" t="n">
-        <v>1759.62265202825</v>
+        <v>1759.49665201719</v>
       </c>
       <c r="H159" t="n">
         <v>29000</v>
       </c>
       <c r="I159" t="n">
-        <v>6558.75506</v>
+        <v>6554.66636</v>
       </c>
       <c r="J159" t="n">
         <v>52.5423728813559</v>
@@ -13304,13 +13304,13 @@
         <v>620</v>
       </c>
       <c r="G160" t="n">
-        <v>1759.62265202825</v>
+        <v>1759.49665201719</v>
       </c>
       <c r="H160" t="n">
         <v>29000</v>
       </c>
       <c r="I160" t="n">
-        <v>6558.75506</v>
+        <v>6554.66636</v>
       </c>
       <c r="J160" t="n">
         <v>52.5423728813559</v>
@@ -13389,13 +13389,13 @@
         <v>620</v>
       </c>
       <c r="G161" t="n">
-        <v>1759.62265202825</v>
+        <v>1759.49665201719</v>
       </c>
       <c r="H161" t="n">
         <v>29000</v>
       </c>
       <c r="I161" t="n">
-        <v>6558.75506</v>
+        <v>6554.66636</v>
       </c>
       <c r="J161" t="n">
         <v>52.5423728813559</v>
@@ -14503,13 +14503,13 @@
         <v>740</v>
       </c>
       <c r="G175" t="n">
-        <v>2066.30622836048</v>
+        <v>2055.26252515766</v>
       </c>
       <c r="H175" t="n">
         <v>29000</v>
       </c>
       <c r="I175" t="n">
-        <v>10582.36346</v>
+        <v>10224.73869</v>
       </c>
       <c r="J175" t="n">
         <v>61.0169491525424</v>
@@ -14588,13 +14588,13 @@
         <v>740</v>
       </c>
       <c r="G176" t="n">
-        <v>2066.30622836048</v>
+        <v>2055.26252515766</v>
       </c>
       <c r="H176" t="n">
         <v>29000</v>
       </c>
       <c r="I176" t="n">
-        <v>10582.36346</v>
+        <v>10224.73869</v>
       </c>
       <c r="J176" t="n">
         <v>61.0169491525424</v>
@@ -14673,13 +14673,13 @@
         <v>740</v>
       </c>
       <c r="G177" t="n">
-        <v>2066.30622836048</v>
+        <v>2055.26252515766</v>
       </c>
       <c r="H177" t="n">
         <v>29000</v>
       </c>
       <c r="I177" t="n">
-        <v>10582.36346</v>
+        <v>10224.73869</v>
       </c>
       <c r="J177" t="n">
         <v>61.0169491525424</v>
@@ -14758,13 +14758,13 @@
         <v>740</v>
       </c>
       <c r="G178" t="n">
-        <v>2066.30622836048</v>
+        <v>2055.26252515766</v>
       </c>
       <c r="H178" t="n">
         <v>29000</v>
       </c>
       <c r="I178" t="n">
-        <v>10582.36346</v>
+        <v>10224.73869</v>
       </c>
       <c r="J178" t="n">
         <v>61.0169491525424</v>
@@ -15872,10 +15872,10 @@
         <v>767</v>
       </c>
       <c r="G192" t="n">
-        <v>1202.45877073336</v>
+        <v>1191.41506753054</v>
       </c>
       <c r="H192" t="n">
-        <v>11224.3310036014</v>
+        <v>10580.1865152874</v>
       </c>
       <c r="I192" t="n">
         <v>3772.6</v>
@@ -15957,10 +15957,10 @@
         <v>767</v>
       </c>
       <c r="G193" t="n">
-        <v>1202.45877073336</v>
+        <v>1191.41506753054</v>
       </c>
       <c r="H193" t="n">
-        <v>11224.3310036014</v>
+        <v>10580.1865152874</v>
       </c>
       <c r="I193" t="n">
         <v>3772.6</v>
@@ -16042,10 +16042,10 @@
         <v>767</v>
       </c>
       <c r="G194" t="n">
-        <v>1202.45877073336</v>
+        <v>1191.41506753054</v>
       </c>
       <c r="H194" t="n">
-        <v>11224.3310036014</v>
+        <v>10580.1865152874</v>
       </c>
       <c r="I194" t="n">
         <v>3772.6</v>
@@ -16127,10 +16127,10 @@
         <v>767</v>
       </c>
       <c r="G195" t="n">
-        <v>1202.45877073336</v>
+        <v>1191.41506753054</v>
       </c>
       <c r="H195" t="n">
-        <v>11224.3310036014</v>
+        <v>10580.1865152874</v>
       </c>
       <c r="I195" t="n">
         <v>3772.6</v>
